--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2045001.128737335</v>
+        <v>2101886.919221771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484464</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5732081.276126462</v>
+        <v>5798656.295771847</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>43.25265002946732</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>41.042466460449</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>85.78580588144442</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>110.2564737593037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>203.3244545506855</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.85450227885472</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>33.91470580449454</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>163.293878347428</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.08339867820153</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>158.7868437042805</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>147.3525275309898</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.8081328485369</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436912</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2378,7 +2378,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430932</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022899</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>73.01514676193538</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="39">
@@ -3664,13 +3664,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>5.990622819018569</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3755,7 +3755,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>196.622849891399</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>65.07405371603608</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>101.4556968337236</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.8611112561204</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6066390714051</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>1611.071888562813</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>1182.490214300081</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1655.726393251681</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1293.109443185507</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.294392636945</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1519292162554</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8658055159088</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1585.813254565969</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.421499899382</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1991.505055583991</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1553.362582767414</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1117.452797941859</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>683.6780531001536</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>255.8106235093614</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2437.152405109126</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>2422.050345728841</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2417.804626068898</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>963.899272227186</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>791.3375607104109</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>625.4595679119336</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>455.7015641626709</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2465.944229588825</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2187.51122884193</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.240118618369</v>
+        <v>1900.555720712361</v>
       </c>
       <c r="W7" t="n">
-        <v>1532.240118618369</v>
+        <v>1628.529316298652</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1383.137561632065</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1155.717890946173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693459</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693459</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263765</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097161</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055757</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.381259633331</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.381259633331</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950348</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580462</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423109</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315499</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068555</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252392</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125431</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442447</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376274</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787307</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366618</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2114.297957518428</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518428</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,22 +5759,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5920,7 +5920,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
@@ -5978,52 +5978,52 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004237</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236978</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423643</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993949</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827345</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.88794878594</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538997</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722834</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595872</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912889</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846715</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620727</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.976124098715</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452683</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.765420572222</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883836</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545675</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312375</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974499</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626151</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418359</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309362</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831961</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449523</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937637</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.8971520785113</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292485</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910048</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,16 +6546,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957676</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789927</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805154</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312526</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930088</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814755</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.710185817961</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>926.1484743011865</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>760.2704815027091</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E40" t="n">
-        <v>590.5124777534461</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F40" t="n">
-        <v>413.8054237152023</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>248.2141487410299</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>108.3119744314045</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1763.340229889428</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.94847522284</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1290.528804536949</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638991</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822414</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996858</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155154</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643614</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>299.4391971876253</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033836</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163885</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734191</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567587</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526182</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710019</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583058</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900074</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833901</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244934</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824245</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123898</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1075.444992783078</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>902.8832812663026</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>737.0052884678253</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778899</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396461</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558483</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2012.101441268253</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1740.075036854544</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.683282187957</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1267.263611502065</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984727</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1898.166269168151</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1462.256484342595</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1028.48173950089</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>600.6143099100982</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2164785333612</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111512</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.990664134033</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055756</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055756</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928794</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245811</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179638</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590671</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169982</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469635</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649026</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.202862318824</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>837.6411508020491</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7631580035718</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>502.005154254309</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169405</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2713.395586583915</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2467.51614016237</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2189.083139415475</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1902.127631285906</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1630.101226872197</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1384.70947220561</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1202.021481037811</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741964</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806959</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196806914</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111853</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352606</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226324</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806823</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73195639979983</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.148518520150134</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.5985112554926</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>178.3951296148062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957345</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.92021546249522</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.78272691405284</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>89.61600311981692</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.986369995734</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>184.7831561774923</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.28436272291242</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>502068.417493979</v>
+        <v>504182.1378978582</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>502068.417493979</v>
+        <v>504562.7179055125</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480504.30764328</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480504.30764328</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487284.6907392471</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500782.138506761</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>494001.7554107938</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480504.3076432798</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>442321.5389095869</v>
+      </c>
+      <c r="C2" t="n">
         <v>442321.538909587</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>442321.5389095868</v>
       </c>
-      <c r="D2" t="n">
-        <v>442321.5389095869</v>
-      </c>
       <c r="E2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266328</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515113</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
@@ -26341,19 +26341,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="P2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="N2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="O2" t="n">
-        <v>428772.4239884372</v>
-      </c>
-      <c r="P2" t="n">
-        <v>417057.2158266327</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850765</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996331</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449892</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407853</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
-        <v>14245.20557049194</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="J4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26454,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.33137706244</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024203</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579275</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319796</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764749</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65405.21024754376</v>
+        <v>65405.21024754371</v>
       </c>
       <c r="C6" t="n">
-        <v>207596.5109072535</v>
+        <v>173534.126410244</v>
       </c>
       <c r="D6" t="n">
-        <v>207596.5109072536</v>
+        <v>234450.5655727109</v>
       </c>
       <c r="E6" t="n">
-        <v>95514.4673862998</v>
+        <v>160315.7291765981</v>
       </c>
       <c r="F6" t="n">
-        <v>329869.489408337</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="G6" t="n">
-        <v>327828.4845743399</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="H6" t="n">
-        <v>330291.3077570671</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="I6" t="n">
-        <v>342694.0627370309</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="J6" t="n">
-        <v>231679.5973920414</v>
+        <v>231656.3730526577</v>
       </c>
       <c r="K6" t="n">
-        <v>342694.0627370305</v>
+        <v>289624.9837588755</v>
       </c>
       <c r="L6" t="n">
-        <v>342694.0627370305</v>
+        <v>333278.5366710253</v>
       </c>
       <c r="M6" t="n">
-        <v>147092.883453963</v>
+        <v>190470.6674596601</v>
       </c>
       <c r="N6" t="n">
-        <v>342694.0627370304</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="O6" t="n">
-        <v>338405.8565281768</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="P6" t="n">
-        <v>329869.4894083369</v>
+        <v>342670.8383976478</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384749</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319979</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760656</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201005</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319979</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760656</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>390.5083980589436</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>215.5876131957043</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>52.71734668508481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.0496666102677</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>194.0593985122833</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>209.5059461528348</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>120.7920747008458</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741964</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806959</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196806914</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111853</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36042,22 +36042,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352606</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,7 +36522,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226324</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806823</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
